--- a/rip.xlsx
+++ b/rip.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="58">
   <si>
     <t>trial</t>
   </si>
@@ -60,130 +60,133 @@
     <t>rneg</t>
   </si>
   <si>
-    <t>file1</t>
-  </si>
-  <si>
-    <t>0.41012</t>
-  </si>
-  <si>
-    <t>0.047831</t>
-  </si>
-  <si>
-    <t>-0.43908</t>
-  </si>
-  <si>
-    <t>0.11356</t>
-  </si>
-  <si>
-    <t>258.7612</t>
-  </si>
-  <si>
-    <t>7.8826</t>
-  </si>
-  <si>
-    <t>335.8733</t>
-  </si>
-  <si>
-    <t>5.3785</t>
-  </si>
-  <si>
-    <t>3.8538</t>
-  </si>
-  <si>
-    <t>1.2846</t>
-  </si>
-  <si>
-    <t>3.1731</t>
-  </si>
-  <si>
-    <t>0.77218</t>
-  </si>
-  <si>
-    <t>-0.86947</t>
+    <t>file1new</t>
+  </si>
+  <si>
+    <t>0.18963</t>
+  </si>
+  <si>
+    <t>0.04562</t>
+  </si>
+  <si>
+    <t>-0.014415</t>
+  </si>
+  <si>
+    <t>0.12707</t>
+  </si>
+  <si>
+    <t>299.5385</t>
+  </si>
+  <si>
+    <t>5.9601</t>
+  </si>
+  <si>
+    <t>320.2473</t>
+  </si>
+  <si>
+    <t>5.535</t>
+  </si>
+  <si>
+    <t>7.5299</t>
+  </si>
+  <si>
+    <t>1.8825</t>
+  </si>
+  <si>
+    <t>3.8958e-29</t>
+  </si>
+  <si>
+    <t>Inf</t>
+  </si>
+  <si>
+    <t>0.58725</t>
+  </si>
+  <si>
+    <t>-1</t>
   </si>
   <si>
     <t>file2</t>
   </si>
   <si>
-    <t>0.41012</t>
-  </si>
-  <si>
-    <t>0.047831</t>
-  </si>
-  <si>
-    <t>-0.43908</t>
-  </si>
-  <si>
-    <t>0.11356</t>
-  </si>
-  <si>
-    <t>258.7612</t>
-  </si>
-  <si>
-    <t>7.8826</t>
-  </si>
-  <si>
-    <t>335.8733</t>
-  </si>
-  <si>
-    <t>5.3785</t>
-  </si>
-  <si>
-    <t>3.8538</t>
-  </si>
-  <si>
-    <t>1.2846</t>
-  </si>
-  <si>
-    <t>3.1731</t>
-  </si>
-  <si>
-    <t>0.77218</t>
-  </si>
-  <si>
-    <t>-0.86947</t>
+    <t>0.39536</t>
+  </si>
+  <si>
+    <t>0.05341</t>
+  </si>
+  <si>
+    <t>0.63816</t>
+  </si>
+  <si>
+    <t>0.10588</t>
+  </si>
+  <si>
+    <t>349.4311</t>
+  </si>
+  <si>
+    <t>7.2655</t>
+  </si>
+  <si>
+    <t>327.3163</t>
+  </si>
+  <si>
+    <t>8.2671</t>
+  </si>
+  <si>
+    <t>2.7285</t>
+  </si>
+  <si>
+    <t>0.9095</t>
+  </si>
+  <si>
+    <t>0.12101</t>
+  </si>
+  <si>
+    <t>0.52812</t>
+  </si>
+  <si>
+    <t>0.98049</t>
   </si>
   <si>
     <t>file3</t>
   </si>
   <si>
-    <t>0.41012</t>
-  </si>
-  <si>
-    <t>0.047831</t>
-  </si>
-  <si>
-    <t>-0.43908</t>
-  </si>
-  <si>
-    <t>0.11356</t>
-  </si>
-  <si>
-    <t>258.7612</t>
-  </si>
-  <si>
-    <t>7.8826</t>
-  </si>
-  <si>
-    <t>335.8733</t>
-  </si>
-  <si>
-    <t>5.3785</t>
-  </si>
-  <si>
-    <t>3.8538</t>
-  </si>
-  <si>
-    <t>1.2846</t>
-  </si>
-  <si>
-    <t>3.1731</t>
-  </si>
-  <si>
-    <t>0.77218</t>
-  </si>
-  <si>
-    <t>-0.86947</t>
+    <t>0.5799</t>
+  </si>
+  <si>
+    <t>0.046289</t>
+  </si>
+  <si>
+    <t>-0.19252</t>
+  </si>
+  <si>
+    <t>0.24022</t>
+  </si>
+  <si>
+    <t>293.2708</t>
+  </si>
+  <si>
+    <t>8.4828</t>
+  </si>
+  <si>
+    <t>371.9177</t>
+  </si>
+  <si>
+    <t>11.6931</t>
+  </si>
+  <si>
+    <t>7.866</t>
+  </si>
+  <si>
+    <t>2.622</t>
+  </si>
+  <si>
+    <t>0.10432</t>
+  </si>
+  <si>
+    <t>0.80213</t>
+  </si>
+  <si>
+    <t>-0.84321</t>
   </si>
 </sst>
 </file>
@@ -238,10 +241,10 @@
   <dimension ref="A1:O4"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="4.7109375" customWidth="true"/>
+    <col min="1" max="1" width="8.15625" customWidth="true"/>
     <col min="2" max="2" width="8.93359375" customWidth="true"/>
     <col min="3" max="3" width="11.26953125" customWidth="true"/>
-    <col min="4" max="4" width="8.93359375" customWidth="true"/>
+    <col min="4" max="4" width="9.37890625" customWidth="true"/>
     <col min="5" max="5" width="11.26953125" customWidth="true"/>
     <col min="6" max="6" width="11.93359375" customWidth="true"/>
     <col min="7" max="7" width="14.26953125" customWidth="true"/>
@@ -340,107 +343,107 @@
         <v>26</v>
       </c>
       <c r="M2" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="N2" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="O2" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H3" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="I3" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="J3" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="K3" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="L3" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="M3" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="N3" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="O3" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H4" s="0" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="I4" s="0" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="J4" s="0" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K4" s="0" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="L4" s="0" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="M4" s="0" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="N4" s="0" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="O4" s="0" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
   </sheetData>
